--- a/forwardprimer-v3_20.xlsx
+++ b/forwardprimer-v3_20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_20" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1825-TGTGTGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTGACTATCGTCGGCAGCGTC</t>
+    <t>F1825-AGTAGGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGGAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1826-ACAGCTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGCTGCTTTCGTCGGCAGCGTC</t>
+    <t>F1826-GTCACCTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACCTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1827-TCACAGTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACAGTCATTCGTCGGCAGCGTC</t>
+    <t>F1827-TTCCTAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1828-ACAAGACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGACTAGTCGTCGGCAGCGTC</t>
+    <t>F1828-AGTACCAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACCAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1829-GTAGAAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAAGGAATCGTCGGCAGCGTC</t>
+    <t>F1829-CAGCTCTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGCTCTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1830-AAGGTACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTACAAGTCGTCGGCAGCGTC</t>
+    <t>F1830-GGAAGAGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGAGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1831-AAGAGCAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGCAAGGTCGTCGGCAGCGTC</t>
+    <t>F1831-AACTAGGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTAGGTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1832-AACAGGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGGAAGATCGTCGGCAGCGTC</t>
+    <t>F1832-GCTCTGTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCTGTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1833-TGTACACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTACACGAATCGTCGGCAGCGTC</t>
+    <t>F1833-AGTCATCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCATCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1834-ACAACTAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACTAGGATCGTCGGCAGCGTC</t>
+    <t>F1834-ACTCTGACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTGACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1835-TGTGATGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGATGGTCTCGTCGGCAGCGTC</t>
+    <t>F1835-CTGCAGAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGCAGAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1836-TCTTCAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCAGACTTCGTCGGCAGCGTC</t>
+    <t>F1836-AGCATGGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCATGGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1837-AGACACAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACACAGTCTCGTCGGCAGCGTC</t>
+    <t>F1837-GACTCTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTCTCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F1838-CTGATCAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGATCAACCTCGTCGGCAGCGTC</t>
+    <t>F1838-ATCACAGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCACAGAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F1839-CAGGACACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGGACACTTTCGTCGGCAGCGTC</t>
+    <t>F1839-TGACTACCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTACCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F1840-AACTGACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGACAGTTCGTCGGCAGCGTC</t>
+    <t>F1840-GAAGAGGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F1841-AACGTAGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTAGAGGTCGTCGGCAGCGTC</t>
+    <t>F1841-AGCTGTACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGTACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F1842-CATGTCAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTCAAGATCGTCGGCAGCGTC</t>
+    <t>F1842-GTGTGAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGAGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F1843-AACTCACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCACGAATCGTCGGCAGCGTC</t>
+    <t>F1843-CTACACTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACACTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F1844-CCATCACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATCACTACTCGTCGGCAGCGTC</t>
+    <t>F1844-AAGTGTCGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGTCGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F1845-TGAGACTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGACTACGTCGTCGGCAGCGTC</t>
+    <t>F1845-ACCATGAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCATGAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F1846-TTCCAAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAAGACATCGTCGGCAGCGTC</t>
+    <t>F1846-GTTCTCGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTCGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F1847-GCTTCAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCAGAGATCGTCGGCAGCGTC</t>
+    <t>F1847-ATGATGGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGATGGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F1848-GTTGCTTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCTTGGATCGTCGGCAGCGTC</t>
+    <t>F1848-GGATCTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATCTGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F1849-ATCGTTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTTCATCTCGTCGGCAGCGTC</t>
+    <t>F1849-TGGTTCAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTTCAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F1850-GAGACTAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGACTAGATTCGTCGGCAGCGTC</t>
+    <t>F1850-ACACGAAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACGAAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F1851-GTGAACAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAACAGTCTCGTCGGCAGCGTC</t>
+    <t>F1851-AAGCAACAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAACAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F1852-ACAGACGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGACGAAGTCGTCGGCAGCGTC</t>
+    <t>F1852-TACCTACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F1853-AGTCGTCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGTCAACTCGTCGGCAGCGTC</t>
+    <t>F1853-GTTCAGCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAGCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F1854-CTAGGTTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGTTGTCTCGTCGGCAGCGTC</t>
+    <t>F1854-TCCAGCTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGCTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F1855-TGTGTGAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTGAGCTTCGTCGGCAGCGTC</t>
+    <t>F1855-GTCTACGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTACGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F1856-TACTTCACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTTCACGTTCGTCGGCAGCGTC</t>
+    <t>F1856-CACATGAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACATGAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F1857-TACCACCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCACCACTTCGTCGGCAGCGTC</t>
+    <t>F1857-TCTTGGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGGTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F1858-ACCATCAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCATCAACGTCGTCGGCAGCGTC</t>
+    <t>F1858-TCAGCTGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCTGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F1859-TTGCAGCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCAGCAAGTCGTCGGCAGCGTC</t>
+    <t>F1859-TGGAGATGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGATGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F1860-TCCTGACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGACTAGTCGTCGGCAGCGTC</t>
+    <t>F1860-TCCATCTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCATCTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1861-TGTGCTTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGCTTCAGTCGTCGGCAGCGTC</t>
+    <t>F1861-TCCTGAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGAGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F1862-GCTGTGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTGTAGATCGTCGGCAGCGTC</t>
+    <t>F1862-GAAGTAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTAGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F1863-TAGTCTCGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTCGTCTCGTCGGCAGCGTC</t>
+    <t>F1863-ATCGAGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGAGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F1864-TGCTCAAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCAAGTTTCGTCGGCAGCGTC</t>
+    <t>F1864-AGGAGATCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGATCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F1865-TTCCTAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTAGTGTTCGTCGGCAGCGTC</t>
+    <t>F1865-ACGAAGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAAGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F1866-CAACAGTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGTTCGTCGTCGGCAGCGTC</t>
+    <t>F1866-ATGCTCTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTCTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F1867-TCTCGTAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTAGTGTCGTCGGCAGCGTC</t>
+    <t>F1867-CGAACTAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAACTAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F1868-GAAGAGGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGGAGATCGTCGGCAGCGTC</t>
+    <t>F1868-CAAGTGAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTGAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F1869-ACACCATGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCATGCATCGTCGGCAGCGTC</t>
+    <t>F1869-TGACTGACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTGACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F1870-TCTGATCGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGATCGACTCGTCGGCAGCGTC</t>
+    <t>F1870-GCTACAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F1871-GAACTGTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGTCGTTCGTCGGCAGCGTC</t>
+    <t>F1871-TCCATGTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCATGTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F1872-CAGAGTAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGTAGTTTCGTCGGCAGCGTC</t>
+    <t>F1872-CAGAAGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAAGTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F1873-TTCATGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCATGCTCATCGTCGGCAGCGTC</t>
+    <t>F1873-ATGCTAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTAGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F1874-GAACTGTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGTTCCTCGTCGGCAGCGTC</t>
+    <t>F1874-AAGCTACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTACCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F1875-ATCGACATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGACATCGTCGTCGGCAGCGTC</t>
+    <t>F1875-AACACAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F1876-AAGACTCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTCACTTCGTCGGCAGCGTC</t>
+    <t>F1876-GCATCACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F1877-TCTCCTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCTCTTGTCGTCGGCAGCGTC</t>
+    <t>F1877-GATGCTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F1878-GATCAGCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCAGCACTTCGTCGGCAGCGTC</t>
+    <t>F1878-TCTGAGAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAGAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F1879-CTCTCATGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCATGCTTCGTCGGCAGCGTC</t>
+    <t>F1879-TGAGACGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGACGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F1880-TTGGATCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGATCCAATCGTCGGCAGCGTC</t>
+    <t>F1880-AGGTCAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F1881-GATCTCAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTCAGGTTCGTCGGCAGCGTC</t>
+    <t>F1881-GTGCTCATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCTCATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F1882-TACTGCATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGCATGATCGTCGGCAGCGTC</t>
+    <t>F1882-TCATCCAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCCAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F1883-CATCTGAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTGAGACTCGTCGGCAGCGTC</t>
+    <t>F1883-TGTTCACTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCACTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F1884-AAGCTAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTAGTGTTCGTCGGCAGCGTC</t>
+    <t>F1884-CGTAGGTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGGTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F1885-CAACACGTCA</t>
+    <t>F1885-ACTCTTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTTCGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1886-CTCTTCGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F1887-TACCATCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCATCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F1888-ACAAGAAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGAAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F1889-TTCACAGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACAGTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F1890-TACTCAGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCAGATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F1891-GCTACCTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACCTACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F1892-GTAGACGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F1893-CGACACTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACACTAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F1894-CCTACAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACAGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F1895-CTGTTCGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTCGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F1896-TCAGGAACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGAACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F1897-AGATCGACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCGACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F1898-AAGGTTCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTTCCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F1899-CAACACGTCA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACCAACACGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F1886-ATCCTACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTACAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F1887-GTAGCTGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F1888-ATCTCGTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCGTCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F1889-ATGGAACGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGAACGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F1890-TAGTTGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTTGATCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F1891-GCAGTACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAGTACAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F1892-CGTTGGTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGGTCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F1893-GAAGAGGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F1894-AGATCGAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCGAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F1895-TGACCAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCAGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F1896-AACCATCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCATCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F1897-TACTGTACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGTACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F1898-TGGTGTACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGTACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F1899-AACCTGGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F1900-CAGACGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGACGAACATCGTCGGCAGCGTC</t>
+    <t>F1900-TCTGGTCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGGTCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F1901-CACACGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACACGAGATTCGTCGGCAGCGTC</t>
+    <t>F1901-CCACTAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCACTAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F1902-TCTCACTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCACTTGTTCGTCGGCAGCGTC</t>
+    <t>F1902-ACTCGATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCGATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F1903-CTGTACGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTACGACTTCGTCGGCAGCGTC</t>
+    <t>F1903-CTTCGAACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGAACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F1904-TCTGATCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGATCCTATCGTCGGCAGCGTC</t>
+    <t>F1904-AGTTCAAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCAAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F1905-ACAACACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACACCTTTCGTCGGCAGCGTC</t>
+    <t>F1905-GTCTTGTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F1906-TGTCAAGTGG</t>
+    <t>F1906-AGTAGGTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGGTCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F1907-CAAGGTTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGTTGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F1908-GTACATCACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACATCACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F1909-ACTGTCTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTCTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F1910-TCTTGTTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGTTGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F1911-GCATGATGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGATGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F1912-CTAGTGGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTGGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F1913-CAGTCGTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCGTTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>F1914-GAGTTGCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTGCATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>F1915-TTCACGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACGAAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>F1916-ATGACACACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGACACACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>F1917-TCTTGAGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGAGAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>F1918-AAGACGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACGAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>F1919-TGTCAAGTGG</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTGTCAAGTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F1907-AACAGATGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGATGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F1908-TGTGAGTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAGTGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F1909-ACTAGGAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F1910-TGGTCGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTCGTCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F1911-AGTGCTAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCTAGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F1912-GCACTGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACTGTTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F1913-ATGAGTGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGTGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>F1914-CGTAGAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGAACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>F1915-TCTGTGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTGATGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>F1916-GTAGACGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>F1917-GAACAGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGATGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>F1918-AGAGATGCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGATGCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>F1919-AGCACTGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCACTGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1920-GTCTCCTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCCTGTTTCGTCGGCAGCGTC</t>
+    <t>F1920-GAACACTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACACTTGCTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
